--- a/data_nilai/nilai_dsk.xlsx
+++ b/data_nilai/nilai_dsk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAB KENDALI\PRAKTIKUM DSK 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC03F1E7-4235-4B47-9A73-10201FE6FC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79B6C28-103A-4EAF-87E4-95350C1E0CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,10 +1470,10 @@
   <dimension ref="A1:AS914"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AJ62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomRight" activeCell="AO76" sqref="AO76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -11041,7 +11041,7 @@
         <v>B+</v>
       </c>
       <c r="AO75" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:45" ht="15.75" customHeight="1" thickBot="1">

--- a/data_nilai/nilai_dsk.xlsx
+++ b/data_nilai/nilai_dsk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAB KENDALI\PRAKTIKUM DSK 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79B6C28-103A-4EAF-87E4-95350C1E0CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFDAFC8-49D8-49B5-917F-6B249C558074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,10 +1470,10 @@
   <dimension ref="A1:AS914"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AJ62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AJ60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AO76" sqref="AO76"/>
+      <selection pane="bottomRight" activeCell="AO66" sqref="AO66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -9777,7 +9777,7 @@
         <v>B+</v>
       </c>
       <c r="AO65" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:45" ht="15.75" customHeight="1" thickBot="1">
@@ -13951,7 +13951,7 @@
         <v>89.06</v>
       </c>
       <c r="AN98" s="3" t="str">
-        <f t="shared" ref="AN98:AN129" si="3">IF(AM98&gt;=85.01, "A", IF(AM98&gt;=80.01, "A-", IF(AM98&gt;=75.01, "B+", IF(AM98&gt;=70.01, "B", IF(AM98&gt;=65.01, "B-", IF(AM98&gt;=60.01, "C+", IF(AM98&gt;=55.01, "C", IF(AM98&gt;=50.01, "D", IF(AM98&gt;=0, "E")))))))))</f>
+        <f t="shared" ref="AN98:AN108" si="3">IF(AM98&gt;=85.01, "A", IF(AM98&gt;=80.01, "A-", IF(AM98&gt;=75.01, "B+", IF(AM98&gt;=70.01, "B", IF(AM98&gt;=65.01, "B-", IF(AM98&gt;=60.01, "C+", IF(AM98&gt;=55.01, "C", IF(AM98&gt;=50.01, "D", IF(AM98&gt;=0, "E")))))))))</f>
         <v>A</v>
       </c>
       <c r="AO98" s="43">
